--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_buff_info[战斗buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_buff_info[战斗buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -35,9 +35,6 @@
     <t>class_entity</t>
   </si>
   <si>
-    <t>time_trigger</t>
-  </si>
-  <si>
     <t>icon_res</t>
   </si>
   <si>
@@ -50,16 +47,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
     <t>引用实例</t>
-  </si>
-  <si>
-    <t>触发事件（-1为一直触发）</t>
   </si>
   <si>
     <t>图标名字</t>
@@ -1048,22 +1039,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="46.625" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,91 +1066,69 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2001</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>15</v>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3001</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4001</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_buff_info[战斗buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_buff_info[战斗buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>class_entity</t>
   </si>
   <si>
+    <t>color_body</t>
+  </si>
+  <si>
     <t>icon_res</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>引用实例</t>
   </si>
   <si>
+    <t>身体变色</t>
+  </si>
+  <si>
     <t>图标名字</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>MoveSpeedDown</t>
+  </si>
+  <si>
+    <t>#54A8C8</t>
   </si>
   <si>
     <t>减速</t>
@@ -1039,21 +1048,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="46.625" customWidth="1"/>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="2" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,69 +1075,81 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2001</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3001</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4001</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1152,7 +1173,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:H88">
+  <sortState ref="A4:I88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_buff_info[战斗buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_buff_info[战斗buff信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="FightBuffInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -71,10 +71,22 @@
     <t>#54A8C8</t>
   </si>
   <si>
-    <t>减速</t>
+    <t>减速-冰</t>
+  </si>
+  <si>
+    <t>#79FF6E</t>
+  </si>
+  <si>
+    <t>减速-粘液</t>
   </si>
   <si>
     <t>流血</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>#5863D6</t>
   </si>
   <si>
     <t>中毒</t>
@@ -1048,16 +1060,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="42.875" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
@@ -1115,7 +1128,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1130,29 +1143,48 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2001</v>
+        <v>101001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>3001</v>
+        <v>200001</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4001</v>
+        <v>300001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1"/>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>400001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -1163,7 +1195,7 @@
     <row r="40" ht="15" customHeight="1"/>
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
@@ -1172,8 +1204,9 @@
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:I88">
+  <sortState ref="A4:N88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
